--- a/_2_Learning Data Analytics - 1 Foundations/Ch05/ReseachProject_Data_final.xlsx
+++ b/_2_Learning Data Analytics - 1 Foundations/Ch05/ReseachProject_Data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DS+DA\Career-Essentials-in-Data-Analysis-by-Microsoft-and-LinkedIn\_2_Learning Data Analytics - 1 Foundations\Ch05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDF9C1E-A1EE-4F92-8264-6253B0033AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C13CF3-B1C6-4C1A-8013-6FDD2DC937CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C369D2A5-0C61-4984-A26D-FB9E25303CBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{C369D2A5-0C61-4984-A26D-FB9E25303CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9663" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9684" uniqueCount="482">
   <si>
     <t>Respondent ID</t>
   </si>
@@ -1522,12 +1522,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13346,7 +13349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F905E81-6149-421A-B0BB-17E524A5B9DE}">
   <dimension ref="A3:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -14107,8 +14110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3B11-B8BD-4C8E-9AE7-5A0B387D786D}">
   <dimension ref="A1:U481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U127"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45411,12 +45414,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B226D47B-260E-412C-8C4F-4DDD0A402BB1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
